--- a/Madz.DatabaseMetaData/doc/DB_Compare_Criteria.xlsx
+++ b/Madz.DatabaseMetaData/doc/DB_Compare_Criteria.xlsx
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A31"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Madz.DatabaseMetaData/doc/DB_Compare_Criteria.xlsx
+++ b/Madz.DatabaseMetaData/doc/DB_Compare_Criteria.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="107">
   <si>
     <t>MySQLSchemaMetaData</t>
   </si>
@@ -589,6 +589,18 @@
   </si>
   <si>
     <t>column.name</t>
+  </si>
+  <si>
+    <t>lowerCaseTableNames</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>lower_case_table_names</t>
+  </si>
+  <si>
+    <t>Its values: 0,1,2</t>
   </si>
 </sst>
 </file>
@@ -752,9 +764,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -832,7 +846,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -841,6 +855,7 @@
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -849,6 +864,7 @@
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1179,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1264,95 +1280,95 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="18"/>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6">
       <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="18"/>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18"/>
+      <c r="B9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="53" hidden="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="91" hidden="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="53" hidden="1">
       <c r="A10" s="18"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -1361,53 +1377,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="91" hidden="1">
       <c r="A11" s="18"/>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>35</v>
@@ -1419,10 +1441,10 @@
     <row r="15" spans="1:6">
       <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -1431,10 +1453,10 @@
     <row r="16" spans="1:6">
       <c r="A16" s="18"/>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -1443,7 +1465,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1453,11 +1475,9 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="A18" s="18"/>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1467,39 +1487,38 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="18"/>
+      <c r="A19" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="18"/>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="18"/>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -1508,10 +1527,13 @@
     <row r="22" spans="1:5">
       <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -1520,7 +1542,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="18"/>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>52</v>
@@ -1532,10 +1554,10 @@
     <row r="24" spans="1:5">
       <c r="A24" s="18"/>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -1544,10 +1566,10 @@
     <row r="25" spans="1:5">
       <c r="A25" s="18"/>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -1556,7 +1578,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="18"/>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>50</v>
@@ -1568,10 +1590,10 @@
     <row r="27" spans="1:5">
       <c r="A27" s="18"/>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -1580,13 +1602,10 @@
     <row r="28" spans="1:5">
       <c r="A28" s="18"/>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -1595,10 +1614,13 @@
     <row r="29" spans="1:5">
       <c r="A29" s="18"/>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -1607,10 +1629,10 @@
     <row r="30" spans="1:5">
       <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -1619,7 +1641,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="18"/>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>14</v>
@@ -1629,77 +1651,77 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" hidden="1" customHeight="1">
+    <row r="34" spans="1:6">
       <c r="A34" s="16"/>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" hidden="1" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="16"/>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>63</v>
@@ -1708,28 +1730,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="16"/>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -1737,182 +1759,179 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="16"/>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="16"/>
+      <c r="B41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="10" t="s">
+      <c r="E41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="17"/>
+      <c r="B42" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" ht="32" hidden="1" customHeight="1">
-      <c r="A42" s="19" t="s">
+      <c r="E42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="5" customFormat="1" ht="32" hidden="1" customHeight="1">
+      <c r="A43" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13" t="s">
+      <c r="D43" s="12"/>
+      <c r="E43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="20"/>
-      <c r="B43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="20"/>
       <c r="B44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="20"/>
       <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="20"/>
+      <c r="B46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="21"/>
-      <c r="B46" s="1" t="s">
+      <c r="E46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="21"/>
+      <c r="B47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="15" t="s">
+      <c r="E47" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="16"/>
-      <c r="B48" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E48" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="16"/>
       <c r="B49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="16"/>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="16"/>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="16"/>
       <c r="B52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="16"/>
       <c r="B53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>91</v>
@@ -1924,45 +1943,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" hidden="1">
-      <c r="A54" s="17"/>
+    <row r="54" spans="1:6">
+      <c r="A54" s="16"/>
       <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" hidden="1">
+      <c r="A55" s="17"/>
+      <c r="B55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="15" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="16"/>
-      <c r="B56" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>42</v>
@@ -1977,38 +1996,54 @@
     <row r="57" spans="1:6">
       <c r="A57" s="16"/>
       <c r="B57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="16"/>
+      <c r="B58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="17"/>
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="1:6">
+      <c r="A59" s="17"/>
+      <c r="B59" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="A18:A31"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A18"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="A33:A42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Madz.DatabaseMetaData/doc/DB_Compare_Criteria.xlsx
+++ b/Madz.DatabaseMetaData/doc/DB_Compare_Criteria.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="110">
   <si>
     <t>MySQLSchemaMetaData</t>
   </si>
@@ -36,9 +36,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>database name</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>table type, such as table, view, system_table, etc</t>
-  </si>
-  <si>
-    <t>table name</t>
   </si>
   <si>
     <t>The table belongs to the schema.</t>
@@ -495,9 +489,6 @@
     <t>entries</t>
   </si>
   <si>
-    <t>isNull</t>
-  </si>
-  <si>
     <t>indexMethod</t>
   </si>
   <si>
@@ -579,15 +570,9 @@
     <t>seq</t>
   </si>
   <si>
-    <t>Not supported in mysql now.</t>
-  </si>
-  <si>
     <t>table.name</t>
   </si>
   <si>
-    <t>index.name</t>
-  </si>
-  <si>
     <t>column.name</t>
   </si>
   <si>
@@ -601,6 +586,30 @@
   </si>
   <si>
     <t>Its values: 0,1,2</t>
+  </si>
+  <si>
+    <t>Compare schema name</t>
+  </si>
+  <si>
+    <t>DottedPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database name dotted path </t>
+  </si>
+  <si>
+    <t>table name dotted path</t>
+  </si>
+  <si>
+    <t>Reserved, need to confirm whether to put them into Jdbc level</t>
+  </si>
+  <si>
+    <t>Compare table name Dotted path</t>
+  </si>
+  <si>
+    <t>Need to check</t>
+  </si>
+  <si>
+    <t>Not supported in mysql now. But we need to compare it. Maybe we should move it to jdbc level?</t>
   </si>
 </sst>
 </file>
@@ -764,7 +773,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -785,8 +794,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -830,9 +847,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,11 +856,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -856,6 +870,10 @@
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -865,6 +883,10 @@
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1197,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1220,460 +1242,469 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17"/>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="18"/>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="18"/>
-      <c r="B5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="17"/>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17"/>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="18"/>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="18"/>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="53">
+      <c r="A10" s="17"/>
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="91">
+      <c r="A11" s="17"/>
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="53" hidden="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17"/>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17"/>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="91" hidden="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="17"/>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="18"/>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="18"/>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17"/>
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="18"/>
-      <c r="B14" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="17"/>
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="18"/>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="18"/>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="17"/>
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="17"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="18"/>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18"/>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="18"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="18"/>
+      <c r="F20" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="17"/>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="18"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="17"/>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="18"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="17"/>
       <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="17"/>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17"/>
+      <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="17"/>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="17"/>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17"/>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="17"/>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="17"/>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="18"/>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="18"/>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="18"/>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="18"/>
-      <c r="B27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="18"/>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="18"/>
-      <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="18"/>
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="17"/>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="17"/>
+      <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="18"/>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="18"/>
-      <c r="B32" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1682,22 +1713,22 @@
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" hidden="1" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -1706,223 +1737,234 @@
     <row r="36" spans="1:6">
       <c r="A36" s="16"/>
       <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="A37" s="16"/>
+      <c r="B37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" hidden="1" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" hidden="1" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>6</v>
+      <c r="C38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="16"/>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="16"/>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="16"/>
       <c r="B41" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="E41" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="16"/>
+      <c r="B42" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="5" customFormat="1" ht="32" customHeight="1">
+      <c r="A43" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="B43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="19"/>
+      <c r="B44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="17"/>
-      <c r="B42" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" ht="32" hidden="1" customHeight="1">
-      <c r="A43" s="19" t="s">
+      <c r="C44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="19"/>
+      <c r="B45" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="20"/>
-      <c r="B44" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="19"/>
+      <c r="B46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="20"/>
-      <c r="B45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="E46" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="20"/>
-      <c r="B46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="21"/>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="16"/>
+      <c r="B48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="16"/>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="16"/>
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="16"/>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="16"/>
       <c r="B52" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -1931,116 +1973,104 @@
     <row r="53" spans="1:6">
       <c r="A53" s="16"/>
       <c r="B53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="45">
+      <c r="A54" s="16"/>
+      <c r="B54" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E54" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="16"/>
-      <c r="B54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" hidden="1">
-      <c r="A55" s="17"/>
-      <c r="B55" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="16"/>
+      <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="16"/>
       <c r="B57" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="16"/>
       <c r="B58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="17"/>
-      <c r="B59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A59" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A56:A59"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="A43:A46"/>
     <mergeCell ref="A33:A42"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A47:A54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
